--- a/data/long_razon/P24_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_2-Estudios-long_razon.xlsx
@@ -504,7 +504,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:K11"/>
+  <dimension ref="A1:Q14"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <pane xSplit="2" ySplit="3" topLeftCell="C4" activePane="bottomRight" state="frozen"/>
@@ -526,6 +526,12 @@
     <col width="14" customWidth="1" min="9" max="9"/>
     <col width="14" customWidth="1" min="10" max="10"/>
     <col width="14" customWidth="1" min="11" max="11"/>
+    <col width="14" customWidth="1" min="12" max="12"/>
+    <col width="14" customWidth="1" min="13" max="13"/>
+    <col width="14" customWidth="1" min="14" max="14"/>
+    <col width="14" customWidth="1" min="15" max="15"/>
+    <col width="14" customWidth="1" min="16" max="16"/>
+    <col width="14" customWidth="1" min="17" max="17"/>
   </cols>
   <sheetData>
     <row r="1">
@@ -542,20 +548,26 @@
       </c>
       <c r="D1" s="3" t="n"/>
       <c r="E1" s="3" t="n"/>
-      <c r="F1" s="3" t="inlineStr">
+      <c r="F1" s="3" t="n"/>
+      <c r="G1" s="3" t="n"/>
+      <c r="H1" s="3" t="inlineStr">
         <is>
           <t>Mujer</t>
         </is>
       </c>
-      <c r="G1" s="3" t="n"/>
-      <c r="H1" s="3" t="n"/>
-      <c r="I1" s="3" t="inlineStr">
-        <is>
-          <t>Total</t>
-        </is>
-      </c>
+      <c r="I1" s="3" t="n"/>
       <c r="J1" s="3" t="n"/>
       <c r="K1" s="3" t="n"/>
+      <c r="L1" s="3" t="n"/>
+      <c r="M1" s="3" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="N1" s="3" t="n"/>
+      <c r="O1" s="3" t="n"/>
+      <c r="P1" s="3" t="n"/>
+      <c r="Q1" s="3" t="n"/>
     </row>
     <row r="2">
       <c r="A2" s="4" t="n"/>
@@ -577,32 +589,62 @@
       </c>
       <c r="F2" s="3" t="inlineStr">
         <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="G2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="H2" s="3" t="inlineStr">
+        <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="G2" s="3" t="inlineStr">
+      <c r="I2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="H2" s="3" t="inlineStr">
+      <c r="J2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
         </is>
       </c>
-      <c r="I2" s="3" t="inlineStr">
+      <c r="K2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="L2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
+        </is>
+      </c>
+      <c r="M2" s="3" t="inlineStr">
         <is>
           <t>M2-M1</t>
         </is>
       </c>
-      <c r="J2" s="3" t="inlineStr">
+      <c r="N2" s="3" t="inlineStr">
         <is>
           <t>M3-M2</t>
         </is>
       </c>
-      <c r="K2" s="3" t="inlineStr">
+      <c r="O2" s="3" t="inlineStr">
         <is>
           <t>M4-M3</t>
+        </is>
+      </c>
+      <c r="P2" s="3" t="inlineStr">
+        <is>
+          <t>M5-M4</t>
+        </is>
+      </c>
+      <c r="Q2" s="3" t="inlineStr">
+        <is>
+          <t>Mz2-Mz1</t>
         </is>
       </c>
     </row>
@@ -618,6 +660,12 @@
       <c r="I3" s="2" t="n"/>
       <c r="J3" s="2" t="n"/>
       <c r="K3" s="2" t="n"/>
+      <c r="L3" s="2" t="n"/>
+      <c r="M3" s="2" t="n"/>
+      <c r="N3" s="2" t="n"/>
+      <c r="O3" s="2" t="n"/>
+      <c r="P3" s="2" t="n"/>
+      <c r="Q3" s="2" t="n"/>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -632,47 +680,77 @@
       </c>
       <c r="C4" s="2" t="inlineStr">
         <is>
-          <t>75,2%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D4" s="2" t="inlineStr">
         <is>
-          <t>-11,39%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E4" s="2" t="inlineStr">
         <is>
-          <t>12,46%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F4" s="2" t="inlineStr">
         <is>
-          <t>-15,31%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G4" s="2" t="inlineStr">
         <is>
-          <t>45,61%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H4" s="2" t="inlineStr">
         <is>
-          <t>-19,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I4" s="2" t="inlineStr">
         <is>
-          <t>9,66%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J4" s="2" t="inlineStr">
         <is>
-          <t>17,98%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K4" s="2" t="inlineStr">
         <is>
-          <t>-8,33%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q4" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -685,47 +763,77 @@
       </c>
       <c r="C5" s="2" t="inlineStr">
         <is>
-          <t>-20,04; 355,02</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D5" s="2" t="inlineStr">
         <is>
-          <t>-70,86; 85,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E5" s="2" t="inlineStr">
         <is>
-          <t>-34,69; 85,65</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F5" s="2" t="inlineStr">
         <is>
-          <t>-46,62; 36,5</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G5" s="2" t="inlineStr">
         <is>
-          <t>-14,34; 140,15</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H5" s="2" t="inlineStr">
         <is>
-          <t>-45,97; 14,98</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I5" s="2" t="inlineStr">
         <is>
-          <t>-23,95; 80,58</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J5" s="2" t="inlineStr">
         <is>
-          <t>-39,07; 76,9</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K5" s="2" t="inlineStr">
         <is>
-          <t>-33,53; 25,78</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q5" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -742,47 +850,77 @@
       </c>
       <c r="C6" s="2" t="inlineStr">
         <is>
-          <t>32,54%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D6" s="2" t="inlineStr">
         <is>
-          <t>25,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E6" s="2" t="inlineStr">
         <is>
-          <t>-20,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F6" s="2" t="inlineStr">
         <is>
-          <t>59,01%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G6" s="2" t="inlineStr">
         <is>
-          <t>22,09%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H6" s="2" t="inlineStr">
         <is>
-          <t>-1,96%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I6" s="2" t="inlineStr">
         <is>
-          <t>45,28%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J6" s="2" t="inlineStr">
         <is>
-          <t>24,16%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K6" s="2" t="inlineStr">
         <is>
-          <t>-11,51%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q6" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -795,47 +933,77 @@
       </c>
       <c r="C7" s="2" t="inlineStr">
         <is>
-          <t>-13,17; 96,84</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D7" s="2" t="inlineStr">
         <is>
-          <t>-12,42; 86,41</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E7" s="2" t="inlineStr">
         <is>
-          <t>-43,01; 7,51</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F7" s="2" t="inlineStr">
         <is>
-          <t>17,27; 123,57</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G7" s="2" t="inlineStr">
         <is>
-          <t>-10,22; 71,67</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H7" s="2" t="inlineStr">
         <is>
-          <t>-25,07; 25,01</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I7" s="2" t="inlineStr">
         <is>
-          <t>13,44; 84,06</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J7" s="2" t="inlineStr">
         <is>
-          <t>-3,81; 58,24</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K7" s="2" t="inlineStr">
         <is>
-          <t>-27,99; 9,21</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q7" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
@@ -852,47 +1020,77 @@
       </c>
       <c r="C8" s="2" t="inlineStr">
         <is>
-          <t>80,38%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D8" s="2" t="inlineStr">
         <is>
-          <t>26,11%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E8" s="2" t="inlineStr">
         <is>
-          <t>-25,22%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F8" s="2" t="inlineStr">
         <is>
-          <t>46,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G8" s="2" t="inlineStr">
         <is>
-          <t>64,62%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H8" s="2" t="inlineStr">
         <is>
-          <t>-17,74%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I8" s="2" t="inlineStr">
         <is>
-          <t>59,82%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J8" s="2" t="inlineStr">
         <is>
-          <t>45,1%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K8" s="2" t="inlineStr">
         <is>
-          <t>-21,13%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q8" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -905,54 +1103,84 @@
       </c>
       <c r="C9" s="2" t="inlineStr">
         <is>
-          <t>17,48; 176,56</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D9" s="2" t="inlineStr">
         <is>
-          <t>-12,57; 78,72</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E9" s="2" t="inlineStr">
         <is>
-          <t>-45,91; 2,48</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F9" s="2" t="inlineStr">
         <is>
-          <t>6,27; 109,97</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G9" s="2" t="inlineStr">
         <is>
-          <t>22,65; 127,11</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H9" s="2" t="inlineStr">
         <is>
-          <t>-37,73; 5,26</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I9" s="2" t="inlineStr">
         <is>
-          <t>23,76; 108,05</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J9" s="2" t="inlineStr">
         <is>
-          <t>16,37; 86,07</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K9" s="2" t="inlineStr">
         <is>
-          <t>-36,17; -3,02</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q9" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
         </is>
       </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
         <is>
-          <t>Total</t>
+          <t>No Pertenece a Medición</t>
         </is>
       </c>
       <c r="B10" s="3" t="inlineStr">
@@ -962,47 +1190,77 @@
       </c>
       <c r="C10" s="2" t="inlineStr">
         <is>
-          <t>51,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="D10" s="2" t="inlineStr">
         <is>
-          <t>18,75%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="E10" s="2" t="inlineStr">
         <is>
-          <t>-17,3%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="F10" s="2" t="inlineStr">
         <is>
-          <t>34,25%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="G10" s="2" t="inlineStr">
         <is>
-          <t>40,78%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="H10" s="2" t="inlineStr">
         <is>
-          <t>-11,59%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="I10" s="2" t="inlineStr">
         <is>
-          <t>41,76%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="J10" s="2" t="inlineStr">
         <is>
-          <t>29,42%</t>
+          <t>—%</t>
         </is>
       </c>
       <c r="K10" s="2" t="inlineStr">
         <is>
-          <t>-14,23%</t>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q10" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
         </is>
       </c>
     </row>
@@ -1015,60 +1273,268 @@
       </c>
       <c r="C11" s="2" t="inlineStr">
         <is>
-          <t>12,4; 101,36</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="D11" s="2" t="inlineStr">
         <is>
-          <t>-7,97; 54,08</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="E11" s="2" t="inlineStr">
         <is>
-          <t>-34,14; 3,27</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="F11" s="2" t="inlineStr">
         <is>
-          <t>10,93; 61,74</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="G11" s="2" t="inlineStr">
         <is>
-          <t>15,21; 71,69</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="H11" s="2" t="inlineStr">
         <is>
-          <t>-25,17; 4,38</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="I11" s="2" t="inlineStr">
         <is>
-          <t>20,39; 68,13</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="J11" s="2" t="inlineStr">
         <is>
-          <t>9,5; 52,33</t>
+          <t>—; —</t>
         </is>
       </c>
       <c r="K11" s="2" t="inlineStr">
         <is>
-          <t>-25,54; -3,06</t>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q11" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="12">
+      <c r="A12" s="1" t="inlineStr">
+        <is>
+          <t>Total</t>
+        </is>
+      </c>
+      <c r="B12" s="3" t="inlineStr">
+        <is>
+          <t>Estimación</t>
+        </is>
+      </c>
+      <c r="C12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="D12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="E12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="F12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="G12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="H12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="I12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="J12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="K12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="L12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="M12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="N12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="O12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="P12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+      <c r="Q12" s="2" t="inlineStr">
+        <is>
+          <t>—%</t>
+        </is>
+      </c>
+    </row>
+    <row r="13">
+      <c r="A13" s="1" t="n"/>
+      <c r="B13" s="3" t="inlineStr">
+        <is>
+          <t>IC 95%</t>
+        </is>
+      </c>
+      <c r="C13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="D13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="E13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="F13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="G13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="H13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="I13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="J13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="K13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="L13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="M13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="N13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="O13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="P13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+      <c r="Q13" s="2" t="inlineStr">
+        <is>
+          <t>—; —</t>
+        </is>
+      </c>
+    </row>
+    <row r="14">
+      <c r="A14" t="inlineStr">
+        <is>
+          <t>Fuente: Encuesta Sanitaria y Social de Andalucía</t>
         </is>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="8">
-    <mergeCell ref="C1:E1"/>
+  <mergeCells count="9">
     <mergeCell ref="A8:A9"/>
+    <mergeCell ref="A12:A13"/>
     <mergeCell ref="A4:A5"/>
-    <mergeCell ref="F1:H1"/>
-    <mergeCell ref="I1:K1"/>
+    <mergeCell ref="C1:G1"/>
+    <mergeCell ref="H1:L1"/>
     <mergeCell ref="A1:B2"/>
     <mergeCell ref="A6:A7"/>
     <mergeCell ref="A10:A11"/>
+    <mergeCell ref="M1:Q1"/>
   </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
 </worksheet>

--- a/data/long_razon/P24_2-Estudios-long_razon.xlsx
+++ b/data/long_razon/P24_2-Estudios-long_razon.xlsx
@@ -683,20 +683,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C4" s="5" t="inlineStr"/>
-      <c r="D4" s="5" t="inlineStr"/>
-      <c r="E4" s="5" t="inlineStr"/>
-      <c r="F4" s="5" t="inlineStr"/>
+      <c r="C4" s="5" t="n">
+        <v>0.1798429407696554</v>
+      </c>
+      <c r="D4" s="5" t="n">
+        <v>0.4753780032485721</v>
+      </c>
+      <c r="E4" s="5" t="n">
+        <v>0.1133016169579792</v>
+      </c>
+      <c r="F4" s="5" t="n">
+        <v>-0.02680656775471525</v>
+      </c>
       <c r="G4" s="5" t="inlineStr"/>
-      <c r="H4" s="5" t="inlineStr"/>
-      <c r="I4" s="5" t="inlineStr"/>
-      <c r="J4" s="5" t="inlineStr"/>
-      <c r="K4" s="5" t="inlineStr"/>
+      <c r="H4" s="5" t="n">
+        <v>-0.1024357674333029</v>
+      </c>
+      <c r="I4" s="5" t="n">
+        <v>1.101273635747636</v>
+      </c>
+      <c r="J4" s="5" t="n">
+        <v>-0.181703209349726</v>
+      </c>
+      <c r="K4" s="5" t="n">
+        <v>0.2258251994124643</v>
+      </c>
       <c r="L4" s="5" t="inlineStr"/>
-      <c r="M4" s="5" t="inlineStr"/>
-      <c r="N4" s="5" t="inlineStr"/>
-      <c r="O4" s="5" t="inlineStr"/>
-      <c r="P4" s="5" t="inlineStr"/>
+      <c r="M4" s="5" t="n">
+        <v>-0.004982388384438756</v>
+      </c>
+      <c r="N4" s="5" t="n">
+        <v>0.8101614978251552</v>
+      </c>
+      <c r="O4" s="5" t="n">
+        <v>-0.08260975788099949</v>
+      </c>
+      <c r="P4" s="5" t="n">
+        <v>0.1264206693093366</v>
+      </c>
       <c r="Q4" s="5" t="inlineStr"/>
     </row>
     <row r="5">
@@ -706,20 +730,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C5" s="5" t="inlineStr"/>
-      <c r="D5" s="5" t="inlineStr"/>
-      <c r="E5" s="5" t="inlineStr"/>
-      <c r="F5" s="5" t="inlineStr"/>
+      <c r="C5" s="5" t="n">
+        <v>-0.5118813926071499</v>
+      </c>
+      <c r="D5" s="5" t="n">
+        <v>-0.2173737175340181</v>
+      </c>
+      <c r="E5" s="5" t="n">
+        <v>-0.3359588306335992</v>
+      </c>
+      <c r="F5" s="5" t="n">
+        <v>-0.5496959255430047</v>
+      </c>
       <c r="G5" s="5" t="inlineStr"/>
-      <c r="H5" s="5" t="inlineStr"/>
-      <c r="I5" s="5" t="inlineStr"/>
-      <c r="J5" s="5" t="inlineStr"/>
-      <c r="K5" s="5" t="inlineStr"/>
+      <c r="H5" s="5" t="n">
+        <v>-0.5344033132065709</v>
+      </c>
+      <c r="I5" s="5" t="n">
+        <v>0.04959042074619987</v>
+      </c>
+      <c r="J5" s="5" t="n">
+        <v>-0.4265155748322558</v>
+      </c>
+      <c r="K5" s="5" t="n">
+        <v>-0.2782681017062599</v>
+      </c>
       <c r="L5" s="5" t="inlineStr"/>
-      <c r="M5" s="5" t="inlineStr"/>
-      <c r="N5" s="5" t="inlineStr"/>
-      <c r="O5" s="5" t="inlineStr"/>
-      <c r="P5" s="5" t="inlineStr"/>
+      <c r="M5" s="5" t="n">
+        <v>-0.4034046793851857</v>
+      </c>
+      <c r="N5" s="5" t="n">
+        <v>0.09432593815466379</v>
+      </c>
+      <c r="O5" s="5" t="n">
+        <v>-0.3333800043831744</v>
+      </c>
+      <c r="P5" s="5" t="n">
+        <v>-0.3066409314943937</v>
+      </c>
       <c r="Q5" s="5" t="inlineStr"/>
     </row>
     <row r="6">
@@ -729,20 +777,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C6" s="5" t="inlineStr"/>
-      <c r="D6" s="5" t="inlineStr"/>
-      <c r="E6" s="5" t="inlineStr"/>
-      <c r="F6" s="5" t="inlineStr"/>
+      <c r="C6" s="5" t="n">
+        <v>1.635447150332982</v>
+      </c>
+      <c r="D6" s="5" t="n">
+        <v>2.190477997848832</v>
+      </c>
+      <c r="E6" s="5" t="n">
+        <v>0.9519272931799128</v>
+      </c>
+      <c r="F6" s="5" t="n">
+        <v>0.9714025050641558</v>
+      </c>
       <c r="G6" s="5" t="inlineStr"/>
-      <c r="H6" s="5" t="inlineStr"/>
-      <c r="I6" s="5" t="inlineStr"/>
-      <c r="J6" s="5" t="inlineStr"/>
-      <c r="K6" s="5" t="inlineStr"/>
+      <c r="H6" s="5" t="n">
+        <v>0.7574216543930566</v>
+      </c>
+      <c r="I6" s="5" t="n">
+        <v>3.044813006647802</v>
+      </c>
+      <c r="J6" s="5" t="n">
+        <v>0.2054026548710968</v>
+      </c>
+      <c r="K6" s="5" t="n">
+        <v>1.340666024358069</v>
+      </c>
       <c r="L6" s="5" t="inlineStr"/>
-      <c r="M6" s="5" t="inlineStr"/>
-      <c r="N6" s="5" t="inlineStr"/>
-      <c r="O6" s="5" t="inlineStr"/>
-      <c r="P6" s="5" t="inlineStr"/>
+      <c r="M6" s="5" t="n">
+        <v>0.6282569243397718</v>
+      </c>
+      <c r="N6" s="5" t="n">
+        <v>1.868360976042689</v>
+      </c>
+      <c r="O6" s="5" t="n">
+        <v>0.2623590365207055</v>
+      </c>
+      <c r="P6" s="5" t="n">
+        <v>0.815971575395733</v>
+      </c>
       <c r="Q6" s="5" t="inlineStr"/>
     </row>
     <row r="7">
@@ -756,20 +828,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C7" s="5" t="inlineStr"/>
-      <c r="D7" s="5" t="inlineStr"/>
-      <c r="E7" s="5" t="inlineStr"/>
-      <c r="F7" s="5" t="inlineStr"/>
+      <c r="C7" s="5" t="n">
+        <v>0.09327946726488871</v>
+      </c>
+      <c r="D7" s="5" t="n">
+        <v>0.3265026553310833</v>
+      </c>
+      <c r="E7" s="5" t="n">
+        <v>-0.1870287360388962</v>
+      </c>
+      <c r="F7" s="5" t="n">
+        <v>0.2764863186572682</v>
+      </c>
       <c r="G7" s="5" t="inlineStr"/>
-      <c r="H7" s="5" t="inlineStr"/>
-      <c r="I7" s="5" t="inlineStr"/>
-      <c r="J7" s="5" t="inlineStr"/>
-      <c r="K7" s="5" t="inlineStr"/>
+      <c r="H7" s="5" t="n">
+        <v>0.7558532886030452</v>
+      </c>
+      <c r="I7" s="5" t="n">
+        <v>0.294051842766505</v>
+      </c>
+      <c r="J7" s="5" t="n">
+        <v>0.004560139721850626</v>
+      </c>
+      <c r="K7" s="5" t="n">
+        <v>0.657055333191948</v>
+      </c>
       <c r="L7" s="5" t="inlineStr"/>
-      <c r="M7" s="5" t="inlineStr"/>
-      <c r="N7" s="5" t="inlineStr"/>
-      <c r="O7" s="5" t="inlineStr"/>
-      <c r="P7" s="5" t="inlineStr"/>
+      <c r="M7" s="5" t="n">
+        <v>0.3932834658869313</v>
+      </c>
+      <c r="N7" s="5" t="n">
+        <v>0.3106404319898494</v>
+      </c>
+      <c r="O7" s="5" t="n">
+        <v>-0.09479884107104099</v>
+      </c>
+      <c r="P7" s="5" t="n">
+        <v>0.4642468927076731</v>
+      </c>
       <c r="Q7" s="5" t="inlineStr"/>
     </row>
     <row r="8">
@@ -779,20 +875,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C8" s="5" t="inlineStr"/>
-      <c r="D8" s="5" t="inlineStr"/>
-      <c r="E8" s="5" t="inlineStr"/>
-      <c r="F8" s="5" t="inlineStr"/>
+      <c r="C8" s="5" t="n">
+        <v>-0.3679731350104601</v>
+      </c>
+      <c r="D8" s="5" t="n">
+        <v>-0.1978420827229775</v>
+      </c>
+      <c r="E8" s="5" t="n">
+        <v>-0.4079225985374768</v>
+      </c>
+      <c r="F8" s="5" t="n">
+        <v>-0.1801489056148997</v>
+      </c>
       <c r="G8" s="5" t="inlineStr"/>
-      <c r="H8" s="5" t="inlineStr"/>
-      <c r="I8" s="5" t="inlineStr"/>
-      <c r="J8" s="5" t="inlineStr"/>
-      <c r="K8" s="5" t="inlineStr"/>
+      <c r="H8" s="5" t="n">
+        <v>0.1853839480794558</v>
+      </c>
+      <c r="I8" s="5" t="n">
+        <v>-0.08424432658466029</v>
+      </c>
+      <c r="J8" s="5" t="n">
+        <v>-0.2187074469421373</v>
+      </c>
+      <c r="K8" s="5" t="n">
+        <v>0.2142182098065728</v>
+      </c>
       <c r="L8" s="5" t="inlineStr"/>
-      <c r="M8" s="5" t="inlineStr"/>
-      <c r="N8" s="5" t="inlineStr"/>
-      <c r="O8" s="5" t="inlineStr"/>
-      <c r="P8" s="5" t="inlineStr"/>
+      <c r="M8" s="5" t="n">
+        <v>-0.02648622104316423</v>
+      </c>
+      <c r="N8" s="5" t="n">
+        <v>-0.02187636567825749</v>
+      </c>
+      <c r="O8" s="5" t="n">
+        <v>-0.2736228344147092</v>
+      </c>
+      <c r="P8" s="5" t="n">
+        <v>0.1400285529242201</v>
+      </c>
       <c r="Q8" s="5" t="inlineStr"/>
     </row>
     <row r="9">
@@ -802,20 +922,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C9" s="5" t="inlineStr"/>
-      <c r="D9" s="5" t="inlineStr"/>
-      <c r="E9" s="5" t="inlineStr"/>
-      <c r="F9" s="5" t="inlineStr"/>
+      <c r="C9" s="5" t="n">
+        <v>0.8897968855201622</v>
+      </c>
+      <c r="D9" s="5" t="n">
+        <v>1.018575062017832</v>
+      </c>
+      <c r="E9" s="5" t="n">
+        <v>0.114241699358303</v>
+      </c>
+      <c r="F9" s="5" t="n">
+        <v>1.150094510632198</v>
+      </c>
       <c r="G9" s="5" t="inlineStr"/>
-      <c r="H9" s="5" t="inlineStr"/>
-      <c r="I9" s="5" t="inlineStr"/>
-      <c r="J9" s="5" t="inlineStr"/>
-      <c r="K9" s="5" t="inlineStr"/>
+      <c r="H9" s="5" t="n">
+        <v>1.586776655507675</v>
+      </c>
+      <c r="I9" s="5" t="n">
+        <v>0.8058468755350181</v>
+      </c>
+      <c r="J9" s="5" t="n">
+        <v>0.3175820408270859</v>
+      </c>
+      <c r="K9" s="5" t="n">
+        <v>1.20432248342079</v>
+      </c>
       <c r="L9" s="5" t="inlineStr"/>
-      <c r="M9" s="5" t="inlineStr"/>
-      <c r="N9" s="5" t="inlineStr"/>
-      <c r="O9" s="5" t="inlineStr"/>
-      <c r="P9" s="5" t="inlineStr"/>
+      <c r="M9" s="5" t="n">
+        <v>0.87489711016793</v>
+      </c>
+      <c r="N9" s="5" t="n">
+        <v>0.7022464178915894</v>
+      </c>
+      <c r="O9" s="5" t="n">
+        <v>0.1128210770491501</v>
+      </c>
+      <c r="P9" s="5" t="n">
+        <v>0.9865299060019357</v>
+      </c>
       <c r="Q9" s="5" t="inlineStr"/>
     </row>
     <row r="10">
@@ -829,20 +973,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C10" s="5" t="inlineStr"/>
-      <c r="D10" s="5" t="inlineStr"/>
-      <c r="E10" s="5" t="inlineStr"/>
-      <c r="F10" s="5" t="inlineStr"/>
+      <c r="C10" s="5" t="n">
+        <v>1.080521927624606</v>
+      </c>
+      <c r="D10" s="5" t="n">
+        <v>0.3127709325322109</v>
+      </c>
+      <c r="E10" s="5" t="n">
+        <v>-0.2637917499954992</v>
+      </c>
+      <c r="F10" s="5" t="n">
+        <v>0.3885743920111513</v>
+      </c>
       <c r="G10" s="5" t="inlineStr"/>
-      <c r="H10" s="5" t="inlineStr"/>
-      <c r="I10" s="5" t="inlineStr"/>
-      <c r="J10" s="5" t="inlineStr"/>
-      <c r="K10" s="5" t="inlineStr"/>
+      <c r="H10" s="5" t="n">
+        <v>0.6239849258702294</v>
+      </c>
+      <c r="I10" s="5" t="n">
+        <v>0.5783753218807445</v>
+      </c>
+      <c r="J10" s="5" t="n">
+        <v>-0.1855074714432541</v>
+      </c>
+      <c r="K10" s="5" t="n">
+        <v>0.1787768540441409</v>
+      </c>
       <c r="L10" s="5" t="inlineStr"/>
-      <c r="M10" s="5" t="inlineStr"/>
-      <c r="N10" s="5" t="inlineStr"/>
-      <c r="O10" s="5" t="inlineStr"/>
-      <c r="P10" s="5" t="inlineStr"/>
+      <c r="M10" s="5" t="n">
+        <v>0.7847944483967643</v>
+      </c>
+      <c r="N10" s="5" t="n">
+        <v>0.4514112506855187</v>
+      </c>
+      <c r="O10" s="5" t="n">
+        <v>-0.2211422628212071</v>
+      </c>
+      <c r="P10" s="5" t="n">
+        <v>0.2622045249215182</v>
+      </c>
       <c r="Q10" s="5" t="inlineStr"/>
     </row>
     <row r="11">
@@ -852,20 +1020,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C11" s="5" t="inlineStr"/>
-      <c r="D11" s="5" t="inlineStr"/>
-      <c r="E11" s="5" t="inlineStr"/>
-      <c r="F11" s="5" t="inlineStr"/>
+      <c r="C11" s="5" t="n">
+        <v>0.2024430114201691</v>
+      </c>
+      <c r="D11" s="5" t="n">
+        <v>-0.09778629694818314</v>
+      </c>
+      <c r="E11" s="5" t="n">
+        <v>-0.4748473967270438</v>
+      </c>
+      <c r="F11" s="5" t="n">
+        <v>-0.1042494675413031</v>
+      </c>
       <c r="G11" s="5" t="inlineStr"/>
-      <c r="H11" s="5" t="inlineStr"/>
-      <c r="I11" s="5" t="inlineStr"/>
-      <c r="J11" s="5" t="inlineStr"/>
-      <c r="K11" s="5" t="inlineStr"/>
+      <c r="H11" s="5" t="n">
+        <v>0.1129319860228004</v>
+      </c>
+      <c r="I11" s="5" t="n">
+        <v>0.1301554903037573</v>
+      </c>
+      <c r="J11" s="5" t="n">
+        <v>-0.3659434859606969</v>
+      </c>
+      <c r="K11" s="5" t="n">
+        <v>-0.1196338220544267</v>
+      </c>
       <c r="L11" s="5" t="inlineStr"/>
-      <c r="M11" s="5" t="inlineStr"/>
-      <c r="N11" s="5" t="inlineStr"/>
-      <c r="O11" s="5" t="inlineStr"/>
-      <c r="P11" s="5" t="inlineStr"/>
+      <c r="M11" s="5" t="n">
+        <v>0.3295384667225606</v>
+      </c>
+      <c r="N11" s="5" t="n">
+        <v>0.105739883175693</v>
+      </c>
+      <c r="O11" s="5" t="n">
+        <v>-0.368667902963375</v>
+      </c>
+      <c r="P11" s="5" t="n">
+        <v>0.006059859008035583</v>
+      </c>
       <c r="Q11" s="5" t="inlineStr"/>
     </row>
     <row r="12">
@@ -875,20 +1067,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C12" s="5" t="inlineStr"/>
-      <c r="D12" s="5" t="inlineStr"/>
-      <c r="E12" s="5" t="inlineStr"/>
-      <c r="F12" s="5" t="inlineStr"/>
+      <c r="C12" s="5" t="n">
+        <v>2.539759846683546</v>
+      </c>
+      <c r="D12" s="5" t="n">
+        <v>0.9826821442678244</v>
+      </c>
+      <c r="E12" s="5" t="n">
+        <v>0.03718964442201044</v>
+      </c>
+      <c r="F12" s="5" t="n">
+        <v>1.092741383047947</v>
+      </c>
       <c r="G12" s="5" t="inlineStr"/>
-      <c r="H12" s="5" t="inlineStr"/>
-      <c r="I12" s="5" t="inlineStr"/>
-      <c r="J12" s="5" t="inlineStr"/>
-      <c r="K12" s="5" t="inlineStr"/>
+      <c r="H12" s="5" t="n">
+        <v>1.40157711734251</v>
+      </c>
+      <c r="I12" s="5" t="n">
+        <v>1.159202187572134</v>
+      </c>
+      <c r="J12" s="5" t="n">
+        <v>0.05317361246772487</v>
+      </c>
+      <c r="K12" s="5" t="n">
+        <v>0.5547111673577045</v>
+      </c>
       <c r="L12" s="5" t="inlineStr"/>
-      <c r="M12" s="5" t="inlineStr"/>
-      <c r="N12" s="5" t="inlineStr"/>
-      <c r="O12" s="5" t="inlineStr"/>
-      <c r="P12" s="5" t="inlineStr"/>
+      <c r="M12" s="5" t="n">
+        <v>1.470022556599809</v>
+      </c>
+      <c r="N12" s="5" t="n">
+        <v>0.8299466328080278</v>
+      </c>
+      <c r="O12" s="5" t="n">
+        <v>-0.04288129316473643</v>
+      </c>
+      <c r="P12" s="5" t="n">
+        <v>0.5973650000631209</v>
+      </c>
       <c r="Q12" s="5" t="inlineStr"/>
     </row>
     <row r="13">
@@ -902,20 +1118,44 @@
           <t>Estimación</t>
         </is>
       </c>
-      <c r="C13" s="5" t="inlineStr"/>
-      <c r="D13" s="5" t="inlineStr"/>
-      <c r="E13" s="5" t="inlineStr"/>
-      <c r="F13" s="5" t="inlineStr"/>
+      <c r="C13" s="5" t="n">
+        <v>0.3487253861890159</v>
+      </c>
+      <c r="D13" s="5" t="n">
+        <v>0.3410351721068092</v>
+      </c>
+      <c r="E13" s="5" t="n">
+        <v>-0.1705424501776818</v>
+      </c>
+      <c r="F13" s="5" t="n">
+        <v>0.2648362343819711</v>
+      </c>
       <c r="G13" s="5" t="inlineStr"/>
-      <c r="H13" s="5" t="inlineStr"/>
-      <c r="I13" s="5" t="inlineStr"/>
-      <c r="J13" s="5" t="inlineStr"/>
-      <c r="K13" s="5" t="inlineStr"/>
+      <c r="H13" s="5" t="n">
+        <v>0.5092329458579605</v>
+      </c>
+      <c r="I13" s="5" t="n">
+        <v>0.5144749749875325</v>
+      </c>
+      <c r="J13" s="5" t="n">
+        <v>-0.107665737941347</v>
+      </c>
+      <c r="K13" s="5" t="n">
+        <v>0.3651653283617579</v>
+      </c>
       <c r="L13" s="5" t="inlineStr"/>
-      <c r="M13" s="5" t="inlineStr"/>
-      <c r="N13" s="5" t="inlineStr"/>
-      <c r="O13" s="5" t="inlineStr"/>
-      <c r="P13" s="5" t="inlineStr"/>
+      <c r="M13" s="5" t="n">
+        <v>0.4374838352078268</v>
+      </c>
+      <c r="N13" s="5" t="n">
+        <v>0.4289464102921113</v>
+      </c>
+      <c r="O13" s="5" t="n">
+        <v>-0.1366215204566029</v>
+      </c>
+      <c r="P13" s="5" t="n">
+        <v>0.3207835055790868</v>
+      </c>
       <c r="Q13" s="5" t="inlineStr"/>
     </row>
     <row r="14">
@@ -925,20 +1165,44 @@
           <t>IC 95% inferior</t>
         </is>
       </c>
-      <c r="C14" s="5" t="inlineStr"/>
-      <c r="D14" s="5" t="inlineStr"/>
-      <c r="E14" s="5" t="inlineStr"/>
-      <c r="F14" s="5" t="inlineStr"/>
+      <c r="C14" s="5" t="n">
+        <v>-0.1041068696402328</v>
+      </c>
+      <c r="D14" s="5" t="n">
+        <v>-0.0146332374821021</v>
+      </c>
+      <c r="E14" s="5" t="n">
+        <v>-0.3296087746567344</v>
+      </c>
+      <c r="F14" s="5" t="n">
+        <v>-0.04822447276909689</v>
+      </c>
       <c r="G14" s="5" t="inlineStr"/>
-      <c r="H14" s="5" t="inlineStr"/>
-      <c r="I14" s="5" t="inlineStr"/>
-      <c r="J14" s="5" t="inlineStr"/>
-      <c r="K14" s="5" t="inlineStr"/>
+      <c r="H14" s="5" t="n">
+        <v>0.1866774561162078</v>
+      </c>
+      <c r="I14" s="5" t="n">
+        <v>0.2245159215813431</v>
+      </c>
+      <c r="J14" s="5" t="n">
+        <v>-0.2450337090605932</v>
+      </c>
+      <c r="K14" s="5" t="n">
+        <v>0.1430300220892002</v>
+      </c>
       <c r="L14" s="5" t="inlineStr"/>
-      <c r="M14" s="5" t="inlineStr"/>
-      <c r="N14" s="5" t="inlineStr"/>
-      <c r="O14" s="5" t="inlineStr"/>
-      <c r="P14" s="5" t="inlineStr"/>
+      <c r="M14" s="5" t="n">
+        <v>0.183057522587149</v>
+      </c>
+      <c r="N14" s="5" t="n">
+        <v>0.2059912731207879</v>
+      </c>
+      <c r="O14" s="5" t="n">
+        <v>-0.2486686615887039</v>
+      </c>
+      <c r="P14" s="5" t="n">
+        <v>0.1285833005911811</v>
+      </c>
       <c r="Q14" s="5" t="inlineStr"/>
     </row>
     <row r="15">
@@ -948,20 +1212,44 @@
           <t>IC 95% superior</t>
         </is>
       </c>
-      <c r="C15" s="5" t="inlineStr"/>
-      <c r="D15" s="5" t="inlineStr"/>
-      <c r="E15" s="5" t="inlineStr"/>
-      <c r="F15" s="5" t="inlineStr"/>
+      <c r="C15" s="5" t="n">
+        <v>0.9442773601019652</v>
+      </c>
+      <c r="D15" s="5" t="n">
+        <v>0.7918301815720162</v>
+      </c>
+      <c r="E15" s="5" t="n">
+        <v>0.02771157178500236</v>
+      </c>
+      <c r="F15" s="5" t="n">
+        <v>0.7651029391995157</v>
+      </c>
       <c r="G15" s="5" t="inlineStr"/>
-      <c r="H15" s="5" t="inlineStr"/>
-      <c r="I15" s="5" t="inlineStr"/>
-      <c r="J15" s="5" t="inlineStr"/>
-      <c r="K15" s="5" t="inlineStr"/>
+      <c r="H15" s="5" t="n">
+        <v>0.9403007784557179</v>
+      </c>
+      <c r="I15" s="5" t="n">
+        <v>0.9052121973489348</v>
+      </c>
+      <c r="J15" s="5" t="n">
+        <v>0.04560977875074483</v>
+      </c>
+      <c r="K15" s="5" t="n">
+        <v>0.6788622458020236</v>
+      </c>
       <c r="L15" s="5" t="inlineStr"/>
-      <c r="M15" s="5" t="inlineStr"/>
-      <c r="N15" s="5" t="inlineStr"/>
-      <c r="O15" s="5" t="inlineStr"/>
-      <c r="P15" s="5" t="inlineStr"/>
+      <c r="M15" s="5" t="n">
+        <v>0.8045058422674187</v>
+      </c>
+      <c r="N15" s="5" t="n">
+        <v>0.734992903971104</v>
+      </c>
+      <c r="O15" s="5" t="n">
+        <v>-0.01531497436513784</v>
+      </c>
+      <c r="P15" s="5" t="n">
+        <v>0.5526074017722895</v>
+      </c>
       <c r="Q15" s="5" t="inlineStr"/>
     </row>
     <row r="16">
